--- a/ME345W/Project/Team_pi_Parts_List.xlsx
+++ b/ME345W/Project/Team_pi_Parts_List.xlsx
@@ -20,37 +20,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part #</t>
+  </si>
   <si>
     <t xml:space="preserve">Part Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Mfg part #</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McMASTER-CARR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9052K114</t>
   </si>
   <si>
     <t xml:space="preserve">510 bronze sheet
 2”x12”x.013”</t>
   </si>
   <si>
-    <t xml:space="preserve">9052K114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McMASTER-CARR</t>
+    <t xml:space="preserve">Newark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97H7863 </t>
   </si>
   <si>
     <t xml:space="preserve">Machine screw x2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6-32X1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newark</t>
   </si>
 </sst>
 </file>
@@ -65,6 +68,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -85,6 +89,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,13 +134,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -155,57 +168,65 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>11.36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>0.689</v>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <f aca="false">0.689*2</f>
+        <v>1.378</v>
       </c>
     </row>
   </sheetData>
